--- a/src/test/resources/testData/SkyTravellerUAE.xlsx
+++ b/src/test/resources/testData/SkyTravellerUAE.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\IweenSkyTravellerUAE\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\IweenSkyTraveller_UAE\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C0ADD7-9A44-448D-A529-60135F4E60DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EEF8CA-8AFB-4488-9DA9-69B7CD894306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1780" windowWidth="14400" windowHeight="8170" xr2:uid="{A98AB1F9-1342-4144-ABEF-0B9BC1646353}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{A98AB1F9-1342-4144-ABEF-0B9BC1646353}"/>
   </bookViews>
   <sheets>
     <sheet name="TCCP_1" sheetId="1" r:id="rId1"/>
+    <sheet name="TCCP_2" sheetId="2" r:id="rId2"/>
+    <sheet name="TCCP_3" sheetId="3" r:id="rId3"/>
+    <sheet name="TCCP_4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
   <si>
     <t>Depart From</t>
   </si>
@@ -56,16 +59,46 @@
     <t>Class</t>
   </si>
   <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>DEL</t>
-  </si>
-  <si>
     <t>Economy</t>
   </si>
   <si>
     <t>SKIP</t>
+  </si>
+  <si>
+    <t>profileDropDown</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>C:\\Users\\LENOVO\\Downloads\\app_logo.png</t>
+  </si>
+  <si>
+    <t>ImagePath</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>HAM</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>accountsPageOption</t>
+  </si>
+  <si>
+    <t>Online Payment</t>
+  </si>
+  <si>
+    <t>selectPayment</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>enterDepositAmount</t>
   </si>
 </sst>
 </file>
@@ -444,15 +477,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6CF5F6-598B-4A3C-BFD3-F74BC78A5583}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="21.36328125" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F3B7AE-640A-43B3-85B4-F344D997D697}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,16 +578,163 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501E5914-46C8-4A82-A21D-CCE84F91275A}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="16.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0F8C0C-3F53-4D8C-A9F1-1C2E0EDE466C}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="10" width="21.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -492,7 +746,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/SkyTravellerUAE.xlsx
+++ b/src/test/resources/testData/SkyTravellerUAE.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\IweenSkyTraveller_UAE\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EEF8CA-8AFB-4488-9DA9-69B7CD894306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA32DDC0-BC1C-4B0F-A6B5-7F58A04DD9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{A98AB1F9-1342-4144-ABEF-0B9BC1646353}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="4" activeTab="10" xr2:uid="{A98AB1F9-1342-4144-ABEF-0B9BC1646353}"/>
   </bookViews>
   <sheets>
     <sheet name="TCCP_1" sheetId="1" r:id="rId1"/>
     <sheet name="TCCP_2" sheetId="2" r:id="rId2"/>
     <sheet name="TCCP_3" sheetId="3" r:id="rId3"/>
     <sheet name="TCCP_4" sheetId="4" r:id="rId4"/>
+    <sheet name="TCCP_5" sheetId="5" r:id="rId5"/>
+    <sheet name="TCCP_6" sheetId="6" r:id="rId6"/>
+    <sheet name="TCCP_7" sheetId="7" r:id="rId7"/>
+    <sheet name="TCCP_8" sheetId="8" r:id="rId8"/>
+    <sheet name="TCCP_9" sheetId="9" r:id="rId9"/>
+    <sheet name="TCCP_10" sheetId="10" r:id="rId10"/>
+    <sheet name="TCCP_12" sheetId="12" r:id="rId11"/>
+    <sheet name="TCCPR_1" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="55">
   <si>
     <t>Depart From</t>
   </si>
@@ -99,6 +107,111 @@
   </si>
   <si>
     <t>enterDepositAmount</t>
+  </si>
+  <si>
+    <t>FlightCardBasedOnIndex</t>
+  </si>
+  <si>
+    <t>Premium Economy</t>
+  </si>
+  <si>
+    <t>TravelClass</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>ModifySearchFromLocation</t>
+  </si>
+  <si>
+    <t>ModifySearchToLocation</t>
+  </si>
+  <si>
+    <t>ModifySearchAdultsCounts</t>
+  </si>
+  <si>
+    <t>ModifySearchChildrenCount</t>
+  </si>
+  <si>
+    <t>ModifySearchInfantsCount</t>
+  </si>
+  <si>
+    <t>ModifyTravelClass</t>
+  </si>
+  <si>
+    <t>DXB</t>
+  </si>
+  <si>
+    <t>adultDOB</t>
+  </si>
+  <si>
+    <t>August,2005,26</t>
+  </si>
+  <si>
+    <t>childDOB</t>
+  </si>
+  <si>
+    <t>infantDOB</t>
+  </si>
+  <si>
+    <t>May,2015,15</t>
+  </si>
+  <si>
+    <t>December,2023,20</t>
+  </si>
+  <si>
+    <t>issueAdultDOB</t>
+  </si>
+  <si>
+    <t>issuechildDOB</t>
+  </si>
+  <si>
+    <t>issueinfantDOB</t>
+  </si>
+  <si>
+    <t>August,2004,26</t>
+  </si>
+  <si>
+    <t>May,2014,15</t>
+  </si>
+  <si>
+    <t>December,2022,20</t>
+  </si>
+  <si>
+    <t>passportExpiryDateForAdult</t>
+  </si>
+  <si>
+    <t>passportExpiryDateForChild</t>
+  </si>
+  <si>
+    <t>passportExpiryDateForInfant</t>
+  </si>
+  <si>
+    <t>May,2034,15</t>
+  </si>
+  <si>
+    <t>December,2032,20</t>
+  </si>
+  <si>
+    <t>August,2034,26</t>
+  </si>
+  <si>
+    <t>SHJ</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>AdultName</t>
+  </si>
+  <si>
+    <t>tarun</t>
+  </si>
+  <si>
+    <t>KBL</t>
   </si>
 </sst>
 </file>
@@ -477,19 +590,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6CF5F6-598B-4A3C-BFD3-F74BC78A5583}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="21.36328125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="8" max="9" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +619,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -514,11 +627,14 @@
       <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -542,6 +658,260 @@
       </c>
       <c r="H2" t="s">
         <v>10</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1965CF4A-0FDC-41ED-8379-F08B26588E18}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="8" width="16" customWidth="1"/>
+    <col min="9" max="11" width="16.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8ABD58-A239-4F45-B56A-30DE4CE6F663}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="20.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E503BEA1-26D4-40E7-A0E2-08EC2C9315DD}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="24.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0F8C0C-3F53-4D8C-A9F1-1C2E0EDE466C}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -764,4 +1134,502 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5DEA2C-75A9-44FE-ADE3-61F5F19DFEF8}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="6" max="7" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD56D99C-CB74-4550-A5BA-F4D5039C5AC8}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C9F342-E00E-489E-9C52-8CF7F0F881BD}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBDCA4A-B305-462D-B487-ECABA2FAE2E7}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="31.36328125" customWidth="1"/>
+    <col min="8" max="13" width="26.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D959F92F-097A-477F-93CE-73F448A4F387}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="10" width="14.26953125" customWidth="1"/>
+    <col min="11" max="14" width="17.1796875" customWidth="1"/>
+    <col min="15" max="15" width="24.453125" customWidth="1"/>
+    <col min="16" max="16" width="31.26953125" customWidth="1"/>
+    <col min="17" max="17" width="25.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/SkyTravellerUAE.xlsx
+++ b/src/test/resources/testData/SkyTravellerUAE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\IweenSkyTraveller_UAE\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA32DDC0-BC1C-4B0F-A6B5-7F58A04DD9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A786403-902B-4EDF-8289-E941158EE453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="4" activeTab="10" xr2:uid="{A98AB1F9-1342-4144-ABEF-0B9BC1646353}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="9" activeTab="13" xr2:uid="{A98AB1F9-1342-4144-ABEF-0B9BC1646353}"/>
   </bookViews>
   <sheets>
     <sheet name="TCCP_1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,12 @@
     <sheet name="TCCP_8" sheetId="8" r:id="rId8"/>
     <sheet name="TCCP_9" sheetId="9" r:id="rId9"/>
     <sheet name="TCCP_10" sheetId="10" r:id="rId10"/>
-    <sheet name="TCCP_12" sheetId="12" r:id="rId11"/>
+    <sheet name="TCCP_11" sheetId="12" r:id="rId11"/>
     <sheet name="TCCPR_1" sheetId="11" r:id="rId12"/>
+    <sheet name="TCCPR_2" sheetId="13" r:id="rId13"/>
+    <sheet name="TCCPR_3" sheetId="14" r:id="rId14"/>
+    <sheet name="TCCP_12" sheetId="15" r:id="rId15"/>
+    <sheet name="TCCPR_4" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="79">
   <si>
     <t>Depart From</t>
   </si>
@@ -212,13 +216,85 @@
   </si>
   <si>
     <t>KBL</t>
+  </si>
+  <si>
+    <t>airLine</t>
+  </si>
+  <si>
+    <t>Spicejet,Air India</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>MZR</t>
+  </si>
+  <si>
+    <t>KDH</t>
+  </si>
+  <si>
+    <t>KHT</t>
+  </si>
+  <si>
+    <t>BRU</t>
+  </si>
+  <si>
+    <t>DUS</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>HEA</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>AUH</t>
+  </si>
+  <si>
+    <t>DOH</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>Suppiler</t>
+  </si>
+  <si>
+    <t>kamair</t>
+  </si>
+  <si>
+    <t>biletbank</t>
+  </si>
+  <si>
+    <t>flyariana</t>
+  </si>
+  <si>
+    <t>emirates</t>
+  </si>
+  <si>
+    <t>amadeus</t>
+  </si>
+  <si>
+    <t>flydubai</t>
+  </si>
+  <si>
+    <t>airarabia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +307,17 @@
       <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,9 +340,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,18 +850,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8ABD58-A239-4F45-B56A-30DE4CE6F663}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="20.81640625" customWidth="1"/>
+    <col min="7" max="8" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -796,10 +884,13 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -821,9 +912,748 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -832,7 +1662,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -912,6 +1742,1096 @@
       </c>
       <c r="K2" t="s">
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41545E3E-B41F-476B-8EC1-F6CE987C9B04}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45469AE-8FA1-4E90-B70F-9EBBD0883F6E}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="26.7265625" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3059DFF9-4EDA-460F-B553-1C94B4E3C505}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="23.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD80FB2E-044B-48B4-A92A-5AABF8CD6A30}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1409,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBDCA4A-B305-462D-B487-ECABA2FAE2E7}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
